--- a/docs/DQC_IFRS_0104/DQC_0104_ListOfAxes.xlsx
+++ b/docs/DQC_IFRS_0104/DQC_0104_ListOfAxes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DJT\Documents\GitHub\davidtauriello\dqc_us_rules\docs\DQC_US_0104\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DJT\Documents\GitHub\DQC\esef-checks\docs\DQC_IFRS_0104\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D93CE2D-5D3E-4BCE-89F6-A50A48B834A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB655BF-DB76-493E-A25A-3CC9F9E936EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44430" yWindow="4290" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Rule element ID</t>
   </si>
@@ -40,22 +40,10 @@
     <t>Members defined in standard taxonomy</t>
   </si>
   <si>
-    <t>Members on additional UGT axes</t>
-  </si>
-  <si>
-    <t>Additional UGT members</t>
-  </si>
-  <si>
     <t>Extensions Allowed</t>
   </si>
   <si>
-    <t>Extensions allowed</t>
-  </si>
-  <si>
     <t>Release Adopted &amp; Updated</t>
-  </si>
-  <si>
-    <t>Taxonomy Added</t>
   </si>
   <si>
     <t>DQC_0104.9551</t>
@@ -137,6 +125,12 @@
 GeographyEliminationsMember,
 OtherNonSegmentMember
 </t>
+  </si>
+  <si>
+    <t>Members on additional IFRS axes</t>
+  </si>
+  <si>
+    <t>Additional IFRS members</t>
   </si>
 </sst>
 </file>
@@ -239,7 +233,6 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -253,6 +246,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,9 +564,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -587,7 +583,7 @@
     <col min="10" max="10" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,253 +603,248 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="13">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="13">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="4">
+    </row>
+    <row r="4" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="204" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="J5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="13">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="6" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="6">
-        <v>14</v>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="13">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6">
-        <v>14</v>
-      </c>
+    <row r="7" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
-    <row r="5" spans="1:30" ht="204" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="6">
-        <v>14</v>
-      </c>
+    <row r="8" spans="1:29" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
     </row>
-    <row r="6" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6">
-        <v>14</v>
-      </c>
+    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
-    <row r="7" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:30" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-    </row>
-    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+    <row r="12" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1085,18 +1076,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1119,18 +1110,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{522857C3-D744-4824-8744-5F9507F9793B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DE76882-7E5B-44E0-B938-115949D68270}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{522857C3-D744-4824-8744-5F9507F9793B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>